--- a/Week-5-Results/time6.xlsx
+++ b/Week-5-Results/time6.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amyta\OneDrive - Georgia Institute of Technology\Documents\mc-chess\Week-5-Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9656707-4673-4C1B-BA93-217C163B4281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD387267-F6CB-4DE1-8673-490B30597BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="384" windowWidth="22668" windowHeight="11256"/>
+    <workbookView xWindow="372" yWindow="1152" windowWidth="16680" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="27">
   <si>
     <t>Number</t>
   </si>
@@ -87,11 +100,26 @@
   <si>
     <t>Gap</t>
   </si>
+  <si>
+    <t>Not right, draw</t>
+  </si>
+  <si>
+    <t>Shows weakness of simulation</t>
+  </si>
+  <si>
+    <t>Example of game that simulation got wrong</t>
+  </si>
+  <si>
+    <t>https://lichess.org/analysis/fromPosition/1r6/p1p3k1/4B1p1/5R2/8/1Pb5/q1P2PP1/3K3R_w_-_-_1_27#57</t>
+  </si>
+  <si>
+    <t>tricky situations (can't afford to make random moves)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -16003,11 +16031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1040"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1045" workbookViewId="0">
-      <selection activeCell="S1029" sqref="S1029"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="L191" sqref="L191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20198,7 +20226,7 @@
         <v>10</v>
       </c>
       <c r="J132">
-        <f t="shared" ref="J131:J194" si="2">B132/(B132+C132)</f>
+        <f t="shared" ref="J132:J194" si="2">B132/(B132+C132)</f>
         <v>0.33845437616387336</v>
       </c>
     </row>
@@ -21621,7 +21649,7 @@
         <v>0.33155416012558869</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>20</v>
       </c>
@@ -21654,7 +21682,7 @@
         <v>0.32584625118633342</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>21</v>
       </c>
@@ -21687,7 +21715,7 @@
         <v>0.32645939086294418</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>22</v>
       </c>
@@ -21720,7 +21748,7 @@
         <v>0.32029262086513993</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>23</v>
       </c>
@@ -21753,7 +21781,7 @@
         <v>0.31088244465232306</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>24</v>
       </c>
@@ -21786,7 +21814,7 @@
         <v>0.33086648165279064</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>25</v>
       </c>
@@ -21819,7 +21847,7 @@
         <v>0.33073079325421612</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -21852,7 +21880,7 @@
         <v>0.33720379146919433</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2</v>
       </c>
@@ -21885,7 +21913,7 @@
         <v>0.30889199255121041</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3</v>
       </c>
@@ -21918,7 +21946,7 @@
         <v>0.32981893192757278</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>4</v>
       </c>
@@ -21951,7 +21979,7 @@
         <v>0.31907894736842107</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>5</v>
       </c>
@@ -21983,8 +22011,11 @@
         <f t="shared" si="2"/>
         <v>0.33404356060606061</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L188" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>6</v>
       </c>
@@ -22016,8 +22047,11 @@
         <f t="shared" si="2"/>
         <v>0.32248452899381158</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L189" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>7</v>
       </c>
@@ -22049,8 +22083,11 @@
         <f t="shared" si="2"/>
         <v>0.3191886220564234</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8</v>
       </c>
@@ -22082,8 +22119,11 @@
         <f t="shared" si="2"/>
         <v>0.32136105860113423</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>9</v>
       </c>
@@ -22115,6 +22155,9 @@
         <f t="shared" si="2"/>
         <v>0.3290167865707434</v>
       </c>
+      <c r="L192" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
@@ -46598,7 +46641,7 @@
         <v>20</v>
       </c>
       <c r="J964">
-        <f t="shared" ref="J963:J1026" si="15">B964/(B964+C964)</f>
+        <f t="shared" ref="J964:J1026" si="15">B964/(B964+C964)</f>
         <v>0</v>
       </c>
     </row>
